--- a/PDC_REFACTOR/SVM/EDT/Staffing EDT.xlsx
+++ b/PDC_REFACTOR/SVM/EDT/Staffing EDT.xlsx
@@ -9,11 +9,16 @@
   </bookViews>
   <sheets>
     <sheet name="Staffing EDT" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Liste" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="TdB staffing" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Staffing EDT'!$A$1:$U$60</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Staffing EDT'!$A$1:$U$61</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="126">
   <si>
     <t xml:space="preserve">N_Affaire</t>
   </si>
@@ -52,6 +57,69 @@
     <t xml:space="preserve">Moyenne 2019</t>
   </si>
   <si>
+    <t xml:space="preserve">STAFF_N_Affaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF_Intitulé_affaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF_Entité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF_Groupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF_Compétences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF_Commentaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF_Staffing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF_A/P/W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF_Moyenne 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF_43466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF_43497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF_43525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF_43556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF_43586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF_43617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF_43647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF_43678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF_43709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF_43739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF_43770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF_43800</t>
+  </si>
+  <si>
     <t xml:space="preserve">10-0153-4</t>
   </si>
   <si>
@@ -290,6 +358,54 @@
   </si>
   <si>
     <t xml:space="preserve">TRAM - Comptage voyage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X RP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum - Moyenne 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum - 43466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum - 43497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum - 43525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum - 43556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum - 43586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum - 43617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum - 43647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum - 43678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum - 43709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum - 43739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum - 43770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(empty)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Result</t>
   </si>
 </sst>
 </file>
@@ -301,7 +417,7 @@
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -326,6 +442,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -341,7 +465,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -349,8 +473,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -374,17 +617,35 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -396,14 +657,100 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="15" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="16" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="17" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Pivot Table Corner" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Pivot Table Value" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Pivot Table Field" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Pivot Table Category" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Pivot Table Title" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Pivot Table Result" xfId="25" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -412,15 +759,1820 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="60" createdVersion="3">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:U61" sheet="Staffing EDT"/>
+  </cacheSource>
+  <cacheFields count="21">
+    <cacheField name="N_Affaire" numFmtId="0">
+      <sharedItems count="23">
+        <s v="10-0153-4"/>
+        <s v="10-0157-8"/>
+        <s v="12-0394-F"/>
+        <s v="13-0391-5"/>
+        <s v="14-0271"/>
+        <s v="15-0122-1"/>
+        <s v="15-0317"/>
+        <s v="15-0372"/>
+        <s v="16-0192"/>
+        <s v="16-0372"/>
+        <s v="17-0018-2"/>
+        <s v="17-0172"/>
+        <s v="17-0219"/>
+        <s v="17-0228"/>
+        <s v="17-0271"/>
+        <s v="17-0333"/>
+        <s v="18-0052"/>
+        <s v="18-0053"/>
+        <s v="18-0079"/>
+        <s v="18-0121"/>
+        <s v="P16-00475"/>
+        <s v="P18-00028"/>
+        <s v="STAFF_N_Affaire"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Intitulé_affaire" numFmtId="0">
+      <sharedItems count="23">
+        <s v="AEL4 - Aménagement des Quais "/>
+        <s v="ARCOS - PRO et phases suivantes "/>
+        <s v="EPE - Renforcement des contrôles réglementaires et analyse du réseau tramway"/>
+        <s v="IVVE MP14-6v"/>
+        <s v="L14 - Prolongement à Mairie de Saint Ouen (MSO) - PRO et suite"/>
+        <s v="MOE PL14S - Projet TSUD"/>
+        <s v="PC SEC de secours - Phase 2"/>
+        <s v="PCC RER - renouvellement des unités centrales de traitement"/>
+        <s v="Programme modernisation PCC RER - DOI 1"/>
+        <s v="Projet d'Externalisation du Processus d'Identification par Télétransmission vers l'Embarqué PEPITE"/>
+        <s v="Projet de Modernisation de la Billettique - Embarqué - DDI"/>
+        <s v="Projet de Modernisation de la Billettique - Embarqué - DOI"/>
+        <s v="SI SEC - Interfaces avec le CCOS Préfecture de Police"/>
+        <s v="STAFF_Intitulé_affaire"/>
+        <s v="T1 - PACT1 - Stations et SMR Bobigny"/>
+        <s v="T1 - Prolongement  des Courtilles à Quatre Routes"/>
+        <s v="T1 - Prolongement à Val de Fontenay - PRO et phases suivantes"/>
+        <s v="T2 - Rétrofit en PE-SAE des rames - Etude AVP"/>
+        <s v="T2 La Défense (Ancien T2 Partiel)"/>
+        <s v="T3 - PE SAE - Localisation à la voie"/>
+        <s v="T3 à Asnières - MOE"/>
+        <s v="T3 Ouest - Etudes AVP"/>
+        <s v="TRAM - Comptage voyage"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Entité" numFmtId="0">
+      <sharedItems count="2">
+        <s v="ISC"/>
+        <s v="STAFF_Entité"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Groupe" numFmtId="0">
+      <sharedItems count="2">
+        <s v="IPS"/>
+        <s v="STAFF_Groupe"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Compétences" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Assistance Intégration Système"/>
+        <s v="Coordination"/>
+        <s v="Intégration système"/>
+        <s v="STAFF_Compétences"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Commentaires" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="STAFF_Commentaires"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Staffing" numFmtId="0">
+      <sharedItems count="32">
+        <s v="ARCAY Michaël"/>
+        <s v="AYADI Souhail (P)"/>
+        <s v="BALL Eric (P)"/>
+        <s v="BELMAAZIZ Smain (P)"/>
+        <s v="BENNANI Mohamed "/>
+        <s v="BONNEFOUX Thierry (P)"/>
+        <s v="BOUSQUET Thierry (P)"/>
+        <s v="BRAKNA Mohammed (P)"/>
+        <s v="BRUNEAU Thomas (P)"/>
+        <s v="CZMIL Victor (P)"/>
+        <s v="D’ANGELO Sébastien "/>
+        <s v="DELVOT Jean-François"/>
+        <s v="DEZAUBEAUX Derek "/>
+        <s v="EL HEJBANI Youness (P)"/>
+        <s v="EONO Aurélie"/>
+        <s v="ESCARO Romain"/>
+        <s v="Karima (P)"/>
+        <s v="LARVOR Juliette"/>
+        <s v="LIMOUSE Clarisse"/>
+        <s v="MARE Grégory"/>
+        <s v="MRABET Marouan (P)"/>
+        <s v="PIOT Maxime"/>
+        <s v="POCHET Jean-Yves (P)"/>
+        <s v="SEBAZUNGU Ephrem (P)"/>
+        <s v="SIBI Patrice (P) "/>
+        <s v="SOAVE Olivier"/>
+        <s v="SORS Michel "/>
+        <s v="STAFF_Staffing"/>
+        <s v="TRIKI Anissa (P)"/>
+        <s v="VAILLANT Louis Gabriel (P)"/>
+        <s v="VASCART Arnaud"/>
+        <s v="X IS"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="A/P/W" numFmtId="0">
+      <sharedItems count="3">
+        <s v="A"/>
+        <s v="P"/>
+        <s v="STAFF_A/P/W"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Moyenne 2019" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0.00968997764545273" maxValue="1" count="21">
+        <n v="0.00968997764545273"/>
+        <n v="0.0172366780327813"/>
+        <n v="0.025"/>
+        <n v="0.05"/>
+        <n v="0.0833333333333333"/>
+        <n v="0.1"/>
+        <n v="0.114150121991579"/>
+        <n v="0.12"/>
+        <n v="0.125"/>
+        <n v="0.183333333333333"/>
+        <n v="0.2"/>
+        <n v="0.25"/>
+        <n v="0.35"/>
+        <n v="0.375"/>
+        <n v="0.4"/>
+        <n v="0.483333333333333"/>
+        <n v="0.5"/>
+        <n v="0.875"/>
+        <n v="0.95"/>
+        <n v="1"/>
+        <s v="STAFF_Moyenne 2019"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="43466" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="1" count="14">
+        <n v="0"/>
+        <n v="0.0119971151800843"/>
+        <n v="0.0213406489929673"/>
+        <n v="0.1"/>
+        <n v="0.12"/>
+        <n v="0.141328722465764"/>
+        <n v="0.2"/>
+        <n v="0.25"/>
+        <n v="0.3"/>
+        <n v="0.4"/>
+        <n v="0.5"/>
+        <n v="0.8"/>
+        <n v="1"/>
+        <s v="STAFF_43466"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="43497" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="1" count="14">
+        <n v="0"/>
+        <n v="0.0119971151800843"/>
+        <n v="0.0213406489929673"/>
+        <n v="0.1"/>
+        <n v="0.12"/>
+        <n v="0.141328722465764"/>
+        <n v="0.2"/>
+        <n v="0.25"/>
+        <n v="0.3"/>
+        <n v="0.4"/>
+        <n v="0.5"/>
+        <n v="0.8"/>
+        <n v="1"/>
+        <s v="STAFF_43497"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="43525" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="1" count="14">
+        <n v="0"/>
+        <n v="0.0119971151800843"/>
+        <n v="0.0213406489929673"/>
+        <n v="0.1"/>
+        <n v="0.12"/>
+        <n v="0.141328722465764"/>
+        <n v="0.2"/>
+        <n v="0.25"/>
+        <n v="0.3"/>
+        <n v="0.4"/>
+        <n v="0.5"/>
+        <n v="0.8"/>
+        <n v="1"/>
+        <s v="STAFF_43525"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="43556" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="1" count="13">
+        <n v="0"/>
+        <n v="0.0119971151800843"/>
+        <n v="0.0213406489929673"/>
+        <n v="0.1"/>
+        <n v="0.12"/>
+        <n v="0.141328722465764"/>
+        <n v="0.2"/>
+        <n v="0.25"/>
+        <n v="0.3"/>
+        <n v="0.4"/>
+        <n v="0.5"/>
+        <n v="1"/>
+        <s v="STAFF_43556"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="43586" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="1" count="13">
+        <n v="0"/>
+        <n v="0.0119971151800843"/>
+        <n v="0.0213406489929673"/>
+        <n v="0.1"/>
+        <n v="0.12"/>
+        <n v="0.141328722465764"/>
+        <n v="0.2"/>
+        <n v="0.25"/>
+        <n v="0.3"/>
+        <n v="0.4"/>
+        <n v="0.5"/>
+        <n v="1"/>
+        <s v="STAFF_43586"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="43617" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="1" count="13">
+        <n v="0"/>
+        <n v="0.0119971151800843"/>
+        <n v="0.0213406489929673"/>
+        <n v="0.1"/>
+        <n v="0.12"/>
+        <n v="0.141328722465764"/>
+        <n v="0.2"/>
+        <n v="0.25"/>
+        <n v="0.3"/>
+        <n v="0.4"/>
+        <n v="0.5"/>
+        <n v="1"/>
+        <s v="STAFF_43617"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="43647" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="1" count="13">
+        <n v="0"/>
+        <n v="0.0119971151800843"/>
+        <n v="0.0213406489929673"/>
+        <n v="0.1"/>
+        <n v="0.12"/>
+        <n v="0.141328722465764"/>
+        <n v="0.2"/>
+        <n v="0.25"/>
+        <n v="0.3"/>
+        <n v="0.4"/>
+        <n v="0.5"/>
+        <n v="1"/>
+        <s v="STAFF_43647"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="43678" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="1" count="13">
+        <n v="0"/>
+        <n v="0.0119971151800843"/>
+        <n v="0.0213406489929673"/>
+        <n v="0.1"/>
+        <n v="0.12"/>
+        <n v="0.141328722465764"/>
+        <n v="0.2"/>
+        <n v="0.25"/>
+        <n v="0.3"/>
+        <n v="0.4"/>
+        <n v="0.5"/>
+        <n v="1"/>
+        <s v="STAFF_43678"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="43709" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="1" count="13">
+        <n v="0"/>
+        <n v="0.00507570257618953"/>
+        <n v="0.00902873611240924"/>
+        <n v="0.059792921043208"/>
+        <n v="0.1"/>
+        <n v="0.12"/>
+        <n v="0.2"/>
+        <n v="0.25"/>
+        <n v="0.3"/>
+        <n v="0.4"/>
+        <n v="0.5"/>
+        <n v="1"/>
+        <s v="STAFF_43709"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="43739" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="1" count="13">
+        <n v="0"/>
+        <n v="0.00507570257618953"/>
+        <n v="0.00902873611240924"/>
+        <n v="0.059792921043208"/>
+        <n v="0.1"/>
+        <n v="0.12"/>
+        <n v="0.2"/>
+        <n v="0.25"/>
+        <n v="0.4"/>
+        <n v="0.5"/>
+        <n v="0.8"/>
+        <n v="1"/>
+        <s v="STAFF_43739"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="43770" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="1" count="13">
+        <n v="0"/>
+        <n v="0.00507570257618953"/>
+        <n v="0.00902873611240924"/>
+        <n v="0.059792921043208"/>
+        <n v="0.1"/>
+        <n v="0.12"/>
+        <n v="0.2"/>
+        <n v="0.25"/>
+        <n v="0.4"/>
+        <n v="0.5"/>
+        <n v="0.8"/>
+        <n v="1"/>
+        <s v="STAFF_43770"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="43800" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="1" count="13">
+        <n v="0"/>
+        <n v="0.00507570257618953"/>
+        <n v="0.00902873611240924"/>
+        <n v="0.059792921043208"/>
+        <n v="0.1"/>
+        <n v="0.12"/>
+        <n v="0.2"/>
+        <n v="0.25"/>
+        <n v="0.4"/>
+        <n v="0.5"/>
+        <n v="0.8"/>
+        <n v="1"/>
+        <s v="STAFF_43800"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="60">
+  <r>
+    <x v="22"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="25"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="22"/>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="26"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="28"/>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="30"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="30"/>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="28"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="25"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="30"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="28"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="22"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="26"/>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
+  <location ref="A3:M7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="21">
+    <pivotField showAll="0" compact="0"/>
+    <pivotField showAll="0" compact="0"/>
+    <pivotField showAll="0" compact="0"/>
+    <pivotField showAll="0" compact="0"/>
+    <pivotField showAll="0" compact="0"/>
+    <pivotField axis="axisRow" showAll="0" compact="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" compact="0"/>
+    <pivotField showAll="0" compact="0"/>
+    <pivotField dataField="1" showAll="0" compact="0"/>
+    <pivotField dataField="1" showAll="0" compact="0"/>
+    <pivotField dataField="1" showAll="0" compact="0"/>
+    <pivotField dataField="1" showAll="0" compact="0"/>
+    <pivotField dataField="1" showAll="0" compact="0"/>
+    <pivotField dataField="1" showAll="0" compact="0"/>
+    <pivotField dataField="1" showAll="0" compact="0"/>
+    <pivotField dataField="1" showAll="0" compact="0"/>
+    <pivotField dataField="1" showAll="0" compact="0"/>
+    <pivotField dataField="1" showAll="0" compact="0"/>
+    <pivotField dataField="1" showAll="0" compact="0"/>
+    <pivotField dataField="1" showAll="0" compact="0"/>
+    <pivotField showAll="0" compact="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <dataFields count="12">
+    <dataField fld="8" subtotal="sum"/>
+    <dataField fld="9" subtotal="sum"/>
+    <dataField fld="10" subtotal="sum"/>
+    <dataField fld="11" subtotal="sum"/>
+    <dataField fld="12" subtotal="sum"/>
+    <dataField fld="13" subtotal="sum"/>
+    <dataField fld="14" subtotal="sum"/>
+    <dataField fld="15" subtotal="sum"/>
+    <dataField fld="16" subtotal="sum"/>
+    <dataField fld="17" subtotal="sum"/>
+    <dataField fld="18" subtotal="sum"/>
+    <dataField fld="19" subtotal="sum"/>
+  </dataFields>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U60"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -428,8 +2580,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="32.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="10" style="0" width="21.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="10.53"/>
@@ -500,7 +2651,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>9</v>
       </c>
@@ -516,71 +2667,73 @@
       <c r="E2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="0" t="str">
-        <f aca="false">IF(COUNTIF(G2,"*(P)*"),"P","A")</f>
-        <v>A</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1</v>
+      <c r="G2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H3" s="0" t="str">
         <f aca="false">IF(COUNTIF(G3,"*(P)*"),"P","A")</f>
@@ -628,26 +2781,26 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H4" s="0" t="str">
         <f aca="false">IF(COUNTIF(G4,"*(P)*"),"P","A")</f>
-        <v>P</v>
+        <v>A</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>1</v>
@@ -691,22 +2844,22 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="str">
         <f aca="false">IF(COUNTIF(G5,"*(P)*"),"P","A")</f>
@@ -754,29 +2907,28 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H6" s="0" t="str">
         <f aca="false">IF(COUNTIF(G6,"*(P)*"),"P","A")</f>
         <v>P</v>
       </c>
       <c r="I6" s="4" t="n">
-        <f aca="false">AVERAGE(J6:U6)</f>
         <v>1</v>
       </c>
       <c r="J6" s="4" t="n">
@@ -818,22 +2970,22 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H7" s="0" t="str">
         <f aca="false">IF(COUNTIF(G7,"*(P)*"),"P","A")</f>
@@ -882,22 +3034,22 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="H8" s="0" t="str">
         <f aca="false">IF(COUNTIF(G8,"*(P)*"),"P","A")</f>
@@ -946,22 +3098,22 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H9" s="0" t="str">
         <f aca="false">IF(COUNTIF(G9,"*(P)*"),"P","A")</f>
@@ -969,63 +3121,63 @@
       </c>
       <c r="I9" s="4" t="n">
         <f aca="false">AVERAGE(J9:U9)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H10" s="0" t="str">
         <f aca="false">IF(COUNTIF(G10,"*(P)*"),"P","A")</f>
@@ -1074,36 +3226,36 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="H11" s="0" t="str">
         <f aca="false">IF(COUNTIF(G11,"*(P)*"),"P","A")</f>
-        <v>A</v>
+        <v>P</v>
       </c>
       <c r="I11" s="4" t="n">
         <f aca="false">AVERAGE(J11:U11)</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0.5</v>
@@ -1118,42 +3270,42 @@
         <v>0.5</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="S11" s="4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T11" s="4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U11" s="4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H12" s="0" t="str">
         <f aca="false">IF(COUNTIF(G12,"*(P)*"),"P","A")</f>
@@ -1161,63 +3313,63 @@
       </c>
       <c r="I12" s="4" t="n">
         <f aca="false">AVERAGE(J12:U12)</f>
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N12" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="S12" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H13" s="0" t="str">
         <f aca="false">IF(COUNTIF(G13,"*(P)*"),"P","A")</f>
@@ -1266,26 +3418,26 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H14" s="0" t="str">
         <f aca="false">IF(COUNTIF(G14,"*(P)*"),"P","A")</f>
-        <v>P</v>
+        <v>A</v>
       </c>
       <c r="I14" s="4" t="n">
         <f aca="false">AVERAGE(J14:U14)</f>
@@ -1330,26 +3482,26 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H15" s="0" t="str">
         <f aca="false">IF(COUNTIF(G15,"*(P)*"),"P","A")</f>
-        <v>A</v>
+        <v>P</v>
       </c>
       <c r="I15" s="4" t="n">
         <f aca="false">AVERAGE(J15:U15)</f>
@@ -1394,26 +3546,26 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H16" s="0" t="str">
         <f aca="false">IF(COUNTIF(G16,"*(P)*"),"P","A")</f>
-        <v>P</v>
+        <v>A</v>
       </c>
       <c r="I16" s="4" t="n">
         <f aca="false">AVERAGE(J16:U16)</f>
@@ -1458,22 +3610,22 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="H17" s="0" t="str">
         <f aca="false">IF(COUNTIF(G17,"*(P)*"),"P","A")</f>
@@ -1481,63 +3633,63 @@
       </c>
       <c r="I17" s="4" t="n">
         <f aca="false">AVERAGE(J17:U17)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M17" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S17" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T17" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U17" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H18" s="0" t="str">
         <f aca="false">IF(COUNTIF(G18,"*(P)*"),"P","A")</f>
@@ -1586,28 +3738,29 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H19" s="0" t="str">
         <f aca="false">IF(COUNTIF(G19,"*(P)*"),"P","A")</f>
         <v>P</v>
       </c>
       <c r="I19" s="4" t="n">
+        <f aca="false">AVERAGE(J19:U19)</f>
         <v>0.5</v>
       </c>
       <c r="J19" s="4" t="n">
@@ -1632,167 +3785,166 @@
         <v>0.5</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="S19" s="4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T19" s="4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U19" s="4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H20" s="0" t="str">
         <f aca="false">IF(COUNTIF(G20,"*(P)*"),"P","A")</f>
-        <v>A</v>
+        <v>P</v>
       </c>
       <c r="I20" s="4" t="n">
-        <f aca="false">AVERAGE(J20:U20)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="S20" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="H21" s="0" t="str">
         <f aca="false">IF(COUNTIF(G21,"*(P)*"),"P","A")</f>
-        <v>P</v>
+        <v>A</v>
       </c>
       <c r="I21" s="4" t="n">
         <f aca="false">AVERAGE(J21:U21)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M21" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N21" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S21" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T21" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U21" s="4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="H22" s="0" t="str">
         <f aca="false">IF(COUNTIF(G22,"*(P)*"),"P","A")</f>
@@ -1800,63 +3952,63 @@
       </c>
       <c r="I22" s="4" t="n">
         <f aca="false">AVERAGE(J22:U22)</f>
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="M22" s="4" t="n">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="N22" s="4" t="n">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="S22" s="4" t="n">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="T22" s="4" t="n">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="U22" s="4" t="n">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H23" s="0" t="str">
         <f aca="false">IF(COUNTIF(G23,"*(P)*"),"P","A")</f>
@@ -1864,63 +4016,63 @@
       </c>
       <c r="I23" s="4" t="n">
         <f aca="false">AVERAGE(J23:U23)</f>
-        <v>0.0833333333333333</v>
+        <v>0.12</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="M23" s="4" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="S23" s="4" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="T23" s="4" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="U23" s="4" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="H24" s="0" t="str">
         <f aca="false">IF(COUNTIF(G24,"*(P)*"),"P","A")</f>
@@ -1928,63 +4080,63 @@
       </c>
       <c r="I24" s="4" t="n">
         <f aca="false">AVERAGE(J24:U24)</f>
-        <v>0.483333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K24" s="4" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="M24" s="4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="N24" s="4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S24" s="4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T24" s="4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U24" s="4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H25" s="0" t="str">
         <f aca="false">IF(COUNTIF(G25,"*(P)*"),"P","A")</f>
@@ -1992,70 +4144,71 @@
       </c>
       <c r="I25" s="4" t="n">
         <f aca="false">AVERAGE(J25:U25)</f>
-        <v>0.183333333333333</v>
+        <v>0.483333333333333</v>
       </c>
       <c r="J25" s="4" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K25" s="4" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="M25" s="4" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N25" s="4" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="S25" s="4" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="T25" s="4" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="U25" s="4" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="H26" s="0" t="str">
         <f aca="false">IF(COUNTIF(G26,"*(P)*"),"P","A")</f>
         <v>P</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>0.1</v>
+        <f aca="false">AVERAGE(J26:U26)</f>
+        <v>0.183333333333333</v>
       </c>
       <c r="J26" s="4" t="n">
         <v>0.1</v>
@@ -2064,80 +4217,79 @@
         <v>0.1</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M26" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N26" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S26" s="4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T26" s="4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U26" s="4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H27" s="0" t="str">
         <f aca="false">IF(COUNTIF(G27,"*(P)*"),"P","A")</f>
-        <v>A</v>
+        <v>P</v>
       </c>
       <c r="I27" s="4" t="n">
-        <f aca="false">AVERAGE(J27:U27)</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M27" s="4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>0</v>
@@ -2160,22 +4312,22 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H28" s="0" t="str">
         <f aca="false">IF(COUNTIF(G28,"*(P)*"),"P","A")</f>
@@ -2183,16 +4335,16 @@
       </c>
       <c r="I28" s="4" t="n">
         <f aca="false">AVERAGE(J28:U28)</f>
-        <v>0.125</v>
+        <v>0.05</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="M28" s="4" t="n">
         <v>0</v>
@@ -2224,22 +4376,22 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="H29" s="0" t="str">
         <f aca="false">IF(COUNTIF(G29,"*(P)*"),"P","A")</f>
@@ -2247,63 +4399,63 @@
       </c>
       <c r="I29" s="4" t="n">
         <f aca="false">AVERAGE(J29:U29)</f>
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="J29" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M29" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="H30" s="0" t="str">
         <f aca="false">IF(COUNTIF(G30,"*(P)*"),"P","A")</f>
@@ -2352,22 +4504,22 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="H31" s="0" t="str">
         <f aca="false">IF(COUNTIF(G31,"*(P)*"),"P","A")</f>
@@ -2416,22 +4568,22 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="H32" s="0" t="str">
         <f aca="false">IF(COUNTIF(G32,"*(P)*"),"P","A")</f>
@@ -2439,16 +4591,16 @@
       </c>
       <c r="I32" s="4" t="n">
         <f aca="false">AVERAGE(J32:U32)</f>
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M32" s="4" t="n">
         <v>1</v>
@@ -2480,22 +4632,22 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H33" s="0" t="str">
         <f aca="false">IF(COUNTIF(G33,"*(P)*"),"P","A")</f>
@@ -2503,16 +4655,16 @@
       </c>
       <c r="I33" s="4" t="n">
         <f aca="false">AVERAGE(J33:U33)</f>
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="J33" s="4" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="M33" s="4" t="n">
         <v>1</v>
@@ -2544,39 +4696,39 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H34" s="0" t="str">
         <f aca="false">IF(COUNTIF(G34,"*(P)*"),"P","A")</f>
-        <v>P</v>
+        <v>A</v>
       </c>
       <c r="I34" s="4" t="n">
         <f aca="false">AVERAGE(J34:U34)</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M34" s="4" t="n">
         <v>1</v>
@@ -2608,212 +4760,212 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="H35" s="0" t="str">
         <f aca="false">IF(COUNTIF(G35,"*(P)*"),"P","A")</f>
-        <v>A</v>
+        <v>P</v>
       </c>
       <c r="I35" s="4" t="n">
+        <f aca="false">AVERAGE(J35:U35)</f>
         <v>1</v>
       </c>
       <c r="J35" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K35" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M35" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N35" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S35" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T35" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U35" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H36" s="0" t="str">
         <f aca="false">IF(COUNTIF(G36,"*(P)*"),"P","A")</f>
-        <v>P</v>
+        <v>A</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M36" s="4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N36" s="4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="S36" s="4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="T36" s="4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="U36" s="4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="H37" s="0" t="str">
         <f aca="false">IF(COUNTIF(G37,"*(P)*"),"P","A")</f>
         <v>P</v>
       </c>
       <c r="I37" s="4" t="n">
-        <f aca="false">AVERAGE(J37:U37)</f>
-        <v>0.114150121991579</v>
+        <v>0.4</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>0.141328722465764</v>
+        <v>0.4</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>0.141328722465764</v>
+        <v>0.4</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>0.141328722465764</v>
+        <v>0.4</v>
       </c>
       <c r="M37" s="4" t="n">
-        <v>0.141328722465764</v>
+        <v>0.4</v>
       </c>
       <c r="N37" s="4" t="n">
-        <v>0.141328722465764</v>
+        <v>0.4</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>0.141328722465764</v>
+        <v>0.4</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>0.141328722465764</v>
+        <v>0.4</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>0.141328722465764</v>
+        <v>0.4</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>0.059792921043208</v>
+        <v>0.4</v>
       </c>
       <c r="S37" s="4" t="n">
-        <v>0.059792921043208</v>
+        <v>0.4</v>
       </c>
       <c r="T37" s="4" t="n">
-        <v>0.059792921043208</v>
+        <v>0.4</v>
       </c>
       <c r="U37" s="4" t="n">
-        <v>0.059792921043208</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="H38" s="0" t="str">
         <f aca="false">IF(COUNTIF(G38,"*(P)*"),"P","A")</f>
@@ -2821,63 +4973,63 @@
       </c>
       <c r="I38" s="4" t="n">
         <f aca="false">AVERAGE(J38:U38)</f>
-        <v>0.0172366780327813</v>
+        <v>0.114150121991579</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>0.0213406489929673</v>
+        <v>0.141328722465764</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>0.0213406489929673</v>
+        <v>0.141328722465764</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>0.0213406489929673</v>
+        <v>0.141328722465764</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>0.0213406489929673</v>
+        <v>0.141328722465764</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>0.0213406489929673</v>
+        <v>0.141328722465764</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>0.0213406489929673</v>
+        <v>0.141328722465764</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>0.0213406489929673</v>
+        <v>0.141328722465764</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>0.0213406489929673</v>
+        <v>0.141328722465764</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>0.00902873611240924</v>
+        <v>0.059792921043208</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>0.00902873611240924</v>
+        <v>0.059792921043208</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>0.00902873611240924</v>
+        <v>0.059792921043208</v>
       </c>
       <c r="U38" s="4" t="n">
-        <v>0.00902873611240924</v>
+        <v>0.059792921043208</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="H39" s="0" t="str">
         <f aca="false">IF(COUNTIF(G39,"*(P)*"),"P","A")</f>
@@ -2885,191 +5037,191 @@
       </c>
       <c r="I39" s="4" t="n">
         <f aca="false">AVERAGE(J39:U39)</f>
-        <v>0.00968997764545273</v>
+        <v>0.0172366780327813</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>0.0119971151800843</v>
+        <v>0.0213406489929673</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>0.0119971151800843</v>
+        <v>0.0213406489929673</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>0.0119971151800843</v>
+        <v>0.0213406489929673</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>0.0119971151800843</v>
+        <v>0.0213406489929673</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>0.0119971151800843</v>
+        <v>0.0213406489929673</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>0.0119971151800843</v>
+        <v>0.0213406489929673</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>0.0119971151800843</v>
+        <v>0.0213406489929673</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>0.0119971151800843</v>
+        <v>0.0213406489929673</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>0.00507570257618953</v>
+        <v>0.00902873611240924</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>0.00507570257618953</v>
+        <v>0.00902873611240924</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>0.00507570257618953</v>
+        <v>0.00902873611240924</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>0.00507570257618953</v>
+        <v>0.00902873611240924</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H40" s="0" t="str">
         <f aca="false">IF(COUNTIF(G40,"*(P)*"),"P","A")</f>
-        <v>A</v>
+        <v>P</v>
       </c>
       <c r="I40" s="4" t="n">
         <f aca="false">AVERAGE(J40:U40)</f>
-        <v>1</v>
+        <v>0.00968997764545273</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1</v>
+        <v>0.0119971151800843</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1</v>
+        <v>0.0119971151800843</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1</v>
+        <v>0.0119971151800843</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1</v>
+        <v>0.0119971151800843</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1</v>
+        <v>0.0119971151800843</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1</v>
+        <v>0.0119971151800843</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1</v>
+        <v>0.0119971151800843</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>1</v>
+        <v>0.0119971151800843</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>1</v>
+        <v>0.00507570257618953</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>1</v>
+        <v>0.00507570257618953</v>
       </c>
       <c r="T40" s="4" t="n">
-        <v>1</v>
+        <v>0.00507570257618953</v>
       </c>
       <c r="U40" s="4" t="n">
-        <v>1</v>
+        <v>0.00507570257618953</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H41" s="0" t="str">
         <f aca="false">IF(COUNTIF(G41,"*(P)*"),"P","A")</f>
-        <v>P</v>
+        <v>A</v>
       </c>
       <c r="I41" s="4" t="n">
         <f aca="false">AVERAGE(J41:U41)</f>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="T41" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="U41" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B42" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="H42" s="0" t="str">
         <f aca="false">IF(COUNTIF(G42,"*(P)*"),"P","A")</f>
@@ -3077,63 +5229,63 @@
       </c>
       <c r="I42" s="4" t="n">
         <f aca="false">AVERAGE(J42:U42)</f>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="S42" s="4" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="T42" s="4" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="U42" s="4" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H43" s="0" t="str">
         <f aca="false">IF(COUNTIF(G43,"*(P)*"),"P","A")</f>
@@ -3141,63 +5293,63 @@
       </c>
       <c r="I43" s="4" t="n">
         <f aca="false">AVERAGE(J43:U43)</f>
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T43" s="4" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="U43" s="4" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H44" s="0" t="str">
         <f aca="false">IF(COUNTIF(G44,"*(P)*"),"P","A")</f>
@@ -3205,63 +5357,63 @@
       </c>
       <c r="I44" s="4" t="n">
         <f aca="false">AVERAGE(J44:U44)</f>
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="S44" s="4" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T44" s="4" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="U44" s="4" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H45" s="0" t="str">
         <f aca="false">IF(COUNTIF(G45,"*(P)*"),"P","A")</f>
@@ -3269,98 +5421,98 @@
       </c>
       <c r="I45" s="4" t="n">
         <f aca="false">AVERAGE(J45:U45)</f>
-        <v>0.025</v>
+        <v>0.35</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S45" s="4" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="T45" s="4" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="U45" s="4" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H46" s="0" t="str">
         <f aca="false">IF(COUNTIF(G46,"*(P)*"),"P","A")</f>
-        <v>A</v>
+        <v>P</v>
       </c>
       <c r="I46" s="4" t="n">
         <f aca="false">AVERAGE(J46:U46)</f>
-        <v>0.1</v>
+        <v>0.025</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="4" t="n">
         <v>0.1</v>
@@ -3374,153 +5526,153 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H47" s="0" t="str">
         <f aca="false">IF(COUNTIF(G47,"*(P)*"),"P","A")</f>
-        <v>P</v>
+        <v>A</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>0.2</v>
+        <f aca="false">AVERAGE(J47:U47)</f>
+        <v>0.1</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S47" s="4" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T47" s="4" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="U47" s="4" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H48" s="0" t="str">
         <f aca="false">IF(COUNTIF(G48,"*(P)*"),"P","A")</f>
-        <v>A</v>
+        <v>P</v>
       </c>
       <c r="I48" s="4" t="n">
-        <f aca="false">AVERAGE(J48:U48)</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="S48" s="4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="T48" s="4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="U48" s="4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H49" s="0" t="str">
         <f aca="false">IF(COUNTIF(G49,"*(P)*"),"P","A")</f>
-        <v>P</v>
+        <v>A</v>
       </c>
       <c r="I49" s="4" t="n">
         <f aca="false">AVERAGE(J49:U49)</f>
@@ -3565,86 +5717,86 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="H50" s="0" t="str">
         <f aca="false">IF(COUNTIF(G50,"*(P)*"),"P","A")</f>
-        <v>A</v>
+        <v>P</v>
       </c>
       <c r="I50" s="4" t="n">
         <f aca="false">AVERAGE(J50:U50)</f>
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="M50" s="4" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N50" s="4" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="S50" s="4" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="T50" s="4" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="U50" s="4" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H51" s="0" t="str">
         <f aca="false">IF(COUNTIF(G51,"*(P)*"),"P","A")</f>
@@ -3691,24 +5843,24 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H52" s="0" t="str">
         <f aca="false">IF(COUNTIF(G52,"*(P)*"),"P","A")</f>
@@ -3716,69 +5868,70 @@
       </c>
       <c r="I52" s="4" t="n">
         <f aca="false">AVERAGE(J52:U52)</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="K52" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L52" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M52" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="N52" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="S52" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T52" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="U52" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="H53" s="0" t="str">
         <f aca="false">IF(COUNTIF(G53,"*(P)*"),"P","A")</f>
-        <v>P</v>
+        <v>A</v>
       </c>
       <c r="I53" s="4" t="n">
+        <f aca="false">AVERAGE(J53:U53)</f>
         <v>1</v>
       </c>
       <c r="J53" s="4" t="n">
@@ -3820,149 +5973,148 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="H54" s="0" t="str">
         <f aca="false">IF(COUNTIF(G54,"*(P)*"),"P","A")</f>
         <v>P</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="M54" s="4" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="N54" s="4" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="S54" s="4" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="T54" s="4" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="U54" s="4" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H55" s="0" t="str">
         <f aca="false">IF(COUNTIF(G55,"*(P)*"),"P","A")</f>
-        <v>A</v>
+        <v>P</v>
       </c>
       <c r="I55" s="4" t="n">
-        <f aca="false">AVERAGE(J55:U55)</f>
-        <v>0.025</v>
+        <v>0.4</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M55" s="4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N55" s="4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="S55" s="4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T55" s="4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U55" s="4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="H56" s="0" t="str">
         <f aca="false">IF(COUNTIF(G56,"*(P)*"),"P","A")</f>
@@ -4011,86 +6163,86 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="H57" s="0" t="str">
         <f aca="false">IF(COUNTIF(G57,"*(P)*"),"P","A")</f>
-        <v>P</v>
+        <v>A</v>
       </c>
       <c r="I57" s="4" t="n">
         <f aca="false">AVERAGE(J57:U57)</f>
-        <v>0.35</v>
+        <v>0.025</v>
       </c>
       <c r="J57" s="4" t="n">
         <v>0.3</v>
       </c>
       <c r="K57" s="4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M57" s="4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N57" s="4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P57" s="4" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="S57" s="4" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T57" s="4" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="U57" s="4" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="H58" s="0" t="str">
         <f aca="false">IF(COUNTIF(G58,"*(P)*"),"P","A")</f>
@@ -4098,63 +6250,63 @@
       </c>
       <c r="I58" s="4" t="n">
         <f aca="false">AVERAGE(J58:U58)</f>
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K58" s="4" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M58" s="4" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="N58" s="4" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P58" s="4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="S58" s="4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="T58" s="4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="U58" s="4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="H59" s="0" t="str">
         <f aca="false">IF(COUNTIF(G59,"*(P)*"),"P","A")</f>
@@ -4162,114 +6314,178 @@
       </c>
       <c r="I59" s="4" t="n">
         <f aca="false">AVERAGE(J59:U59)</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K59" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M59" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N59" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S59" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="T59" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="U59" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="H60" s="0" t="str">
         <f aca="false">IF(COUNTIF(G60,"*(P)*"),"P","A")</f>
-        <v>A</v>
+        <v>P</v>
       </c>
       <c r="I60" s="4" t="n">
         <f aca="false">AVERAGE(J60:U60)</f>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J60" s="4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="K60" s="4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="M60" s="4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="N60" s="4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="P60" s="4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="S60" s="4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="T60" s="4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U60" s="4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H61" s="0" t="str">
+        <f aca="false">IF(COUNTIF(G61,"*(P)*"),"P","A")</f>
+        <v>A</v>
+      </c>
+      <c r="I61" s="4" t="n">
+        <f aca="false">AVERAGE(J61:U61)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J61" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L61" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M61" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N61" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O61" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P61" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q61" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R61" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S61" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T61" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U61" s="4" t="n">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U60"/>
+  <autoFilter ref="A1:U61"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G60" type="list">
-      <formula1>#ref!</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G3:G61" type="list">
+      <formula1>Liste!$A$2:$A$37</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -4282,4 +6498,456 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A33"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A3:M23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="2" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="3.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="0" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="0" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="3.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="22.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="23.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="22.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="22.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="23.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="22.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="22.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="23.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="22.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="23.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="22.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="22.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="23.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="22.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="23.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="25.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="0" width="27.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="68" style="0" width="10.53"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="18" t="n">
+        <v>31.9110767776698</v>
+      </c>
+      <c r="C6" s="19" t="n">
+        <v>32.2446664866388</v>
+      </c>
+      <c r="D6" s="19" t="n">
+        <v>31.6446664866388</v>
+      </c>
+      <c r="E6" s="19" t="n">
+        <v>31.3446664866388</v>
+      </c>
+      <c r="F6" s="19" t="n">
+        <v>31.3446664866388</v>
+      </c>
+      <c r="G6" s="19" t="n">
+        <v>31.3446664866388</v>
+      </c>
+      <c r="H6" s="19" t="n">
+        <v>31.3446664866388</v>
+      </c>
+      <c r="I6" s="19" t="n">
+        <v>31.0446664866388</v>
+      </c>
+      <c r="J6" s="19" t="n">
+        <v>30.7446664866388</v>
+      </c>
+      <c r="K6" s="19" t="n">
+        <v>30.6438973597318</v>
+      </c>
+      <c r="L6" s="19" t="n">
+        <v>30.8438973597318</v>
+      </c>
+      <c r="M6" s="20" t="n">
+        <v>30.8438973597318</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="22" t="n">
+        <v>31.9110767776698</v>
+      </c>
+      <c r="C7" s="23" t="n">
+        <v>32.2446664866388</v>
+      </c>
+      <c r="D7" s="23" t="n">
+        <v>31.6446664866388</v>
+      </c>
+      <c r="E7" s="23" t="n">
+        <v>31.3446664866388</v>
+      </c>
+      <c r="F7" s="23" t="n">
+        <v>31.3446664866388</v>
+      </c>
+      <c r="G7" s="23" t="n">
+        <v>31.3446664866388</v>
+      </c>
+      <c r="H7" s="23" t="n">
+        <v>31.3446664866388</v>
+      </c>
+      <c r="I7" s="23" t="n">
+        <v>31.0446664866388</v>
+      </c>
+      <c r="J7" s="23" t="n">
+        <v>30.7446664866388</v>
+      </c>
+      <c r="K7" s="23" t="n">
+        <v>30.6438973597318</v>
+      </c>
+      <c r="L7" s="23" t="n">
+        <v>30.8438973597318</v>
+      </c>
+      <c r="M7" s="24" t="n">
+        <v>30.8438973597318</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>